--- a/Problem_Set_3_Andy_Converse.xlsx
+++ b/Problem_Set_3_Andy_Converse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Documents/Hamline Acedmics/Hamline Fall 24/QMBE 1320/QMBE_1320_Andy_Converse/README/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC0110C-53C6-8C47-83B0-57ADF3E98D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8014864-7475-3146-9132-E606C91E41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{740FD8DC-7B53-4E78-8E3A-26D1AA96C0C6}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{740FD8DC-7B53-4E78-8E3A-26D1AA96C0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -267,8 +267,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -489,7 +489,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,18 +513,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,7 +536,6 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,35 +584,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -798,13 +765,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -817,6 +777,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3808,7 +3804,7 @@
         <s v="Stratus Building Solutions"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="# U.S. Locations" numFmtId="165">
+    <cacheField name="# U.S. Locations" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1431" maxValue="37496"/>
     </cacheField>
     <cacheField name="Loaction Class" numFmtId="0">
@@ -3934,7 +3930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9BD90F7-EB99-DB48-B804-D310BB4B8013}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9BD90F7-EB99-DB48-B804-D310BB4B8013}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A23:F45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3962,7 +3958,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="0"/>
@@ -4077,14 +4073,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5FA7832-A425-9A4B-B286-BC6A50F6A0BF}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5FA7832-A425-9A4B-B286-BC6A50F6A0BF}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E10" xr:uid="{D5FA7832-A425-9A4B-B286-BC6A50F6A0BF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97835301-41A2-E142-B275-8D645B0CD165}" name="Salesperson" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{58929E76-0BE3-9146-AEBA-A5DD63955871}" name="Total Sales ($)" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{EB216497-7E1D-8846-AE69-31B88542971B}" name="Average Performance Bonus Previous Years ($)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A4C45D14-5355-114D-9074-09377AD09FCE}" name="Customer Accounts" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{BC75E705-B800-FB48-9D22-DCFA10FC5A04}" name="Years with Company" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{97835301-41A2-E142-B275-8D645B0CD165}" name="Salesperson" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{58929E76-0BE3-9146-AEBA-A5DD63955871}" name="Total Sales ($)" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{EB216497-7E1D-8846-AE69-31B88542971B}" name="Average Performance Bonus Previous Years ($)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A4C45D14-5355-114D-9074-09377AD09FCE}" name="Customer Accounts" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BC75E705-B800-FB48-9D22-DCFA10FC5A04}" name="Years with Company" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4465,58 +4461,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2">
         <v>14</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3">
         <v>17</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5">
         <v>22</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6">
         <v>26</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4533,7 +4529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEAF060-689A-49B6-A236-351E09228FB9}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -4995,7 +4991,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <f>C10-B10</f>
         <v>0.25649350649350633</v>
       </c>
@@ -5017,179 +5013,179 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>379401.94</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>27981.443200000002</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>121</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="32">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>87423.91</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="23">
         <v>7642.9011</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>28</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>87654.21</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>1250.1393</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>21</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>234091.39</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>14567.9833</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>48</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>452359.19</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>21987.246200000001</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>175</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>325000.78000000003</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>12499.3452</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>124</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>31733.59</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>672.91110000000003</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>7</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>127845.22</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>13322.971299999999</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>17</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="34">
         <v>13678.21</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="35">
         <v>239.9434</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <v>9</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="37">
         <v>7</v>
       </c>
     </row>
@@ -5209,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86513B73-8C33-4723-9912-7A5475C662CD}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5473,15 +5469,15 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B24" t="s">
@@ -5501,302 +5497,242 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
+      <c r="F26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16">
+      <c r="F35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16">
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16">
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="F41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="F43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+      <c r="F44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45">
         <v>13</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45">
         <v>20</v>
       </c>
     </row>
